--- a/biology/Virologie/Mastadenovirus/Mastadenovirus.xlsx
+++ b/biology/Virologie/Mastadenovirus/Mastadenovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mastadenovirus est un genre de virus de la famille des Adenoviridae. 
 Les humains et autres mammifères servent d'hôtes naturels. Ce genre regroupe 51 espèces. Le genre dans son ensemble est impliqué dans de nombreuses infections humaines, responsables de 2 à 5 % de toutes les infections respiratoires, ainsi que des infections gastro-intestinales et oculaires. Les symptômes sont généralement bénins.
@@ -490,7 +502,7 @@
 sérotypes 8, 19 et 37 : kératoconjonctivite épidémique ;
 sérotype 14 : peut entraîner des infections potentiellement mortelles ;
 sérotypes 40 et 41 : gastroentérite.
-L'adénovirus canin 1 (CAdV-1) peut entraîner la mort des chiots ou une encéphalite chez d'autres espèces de carnivores[2],[3],[4].
+L'adénovirus canin 1 (CAdV-1) peut entraîner la mort des chiots ou une encéphalite chez d'autres espèces de carnivores.
 </t>
         </is>
       </c>
@@ -519,9 +531,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Mastadenovirus est dérivé du mot grec mastos pour mamelle (pour mammifère) et adenovirus, nommé d'après les végétations adénoïdes humaines où le virus a été isolé pour la première fois[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Mastadenovirus est dérivé du mot grec mastos pour mamelle (pour mammifère) et adenovirus, nommé d'après les végétations adénoïdes humaines où le virus a été isolé pour la première fois,.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre contient les espèces suivantes[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre contient les espèces suivantes :
 Bat mastadenovirus A (en)
 Bat mastadenovirus B
 Bat mastadenovirus C
